--- a/server/test-MR-1764607083745-F032170B.xlsx
+++ b/server/test-MR-1764607083745-F032170B.xlsx
@@ -1,59 +1,144 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="叫料單" sheetId="1" r:id="rId1"/>
-    <sheet name="202512" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="叫料單" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="202512" state="visible" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+  <si>
+    <t>金鴻空調機電工程有限公司</t>
+  </si>
+  <si>
+    <t>統編：16272724</t>
+  </si>
+  <si>
+    <t>編號</t>
+  </si>
+  <si>
+    <t>訂單代碼</t>
+  </si>
+  <si>
+    <t>日期時間</t>
+  </si>
+  <si>
+    <t>聯絡電話</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>狀態</t>
+  </si>
+  <si>
+    <t>數量</t>
+  </si>
+  <si>
+    <t>型號/規格</t>
+  </si>
+  <si>
+    <t>單位</t>
+  </si>
+  <si>
+    <t>單價</t>
+  </si>
+  <si>
+    <t>類別</t>
+  </si>
+  <si>
+    <t>其他資訊</t>
+  </si>
+  <si>
+    <t>16272724</t>
+  </si>
+  <si>
+    <t>MR-1764607083745-F032170B</t>
+  </si>
+  <si>
+    <t>20251201 1638</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>4"</t>
+  </si>
+  <si>
+    <t>支</t>
+  </si>
+  <si>
+    <t>鍍鋅鋼管4626</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>分類</t>
+  </si>
+  <si>
+    <t>202512</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="微軟正黑體"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微軟正黑體"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -61,18 +146,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D0D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,133 +529,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="12" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>編號</v>
-      </c>
-      <c r="B1" t="str">
-        <v>訂單代碼</v>
-      </c>
-      <c r="C1" t="str">
-        <v>日期時間</v>
-      </c>
-      <c r="D1" t="str">
-        <v>聯絡電話</v>
-      </c>
-      <c r="E1" t="str">
-        <v>備註</v>
-      </c>
-      <c r="F1" t="str">
-        <v>狀態</v>
-      </c>
-      <c r="G1" t="str">
-        <v>數量</v>
-      </c>
-      <c r="H1" t="str">
-        <v>型號/規格</v>
-      </c>
-      <c r="I1" t="str">
-        <v>單位</v>
-      </c>
-      <c r="J1" t="str">
-        <v>單價</v>
-      </c>
-      <c r="K1" t="str">
-        <v>類別</v>
-      </c>
-      <c r="L1" t="str">
-        <v>其他資訊</v>
-      </c>
+    <row r="1" ht="30" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>16272724</v>
-      </c>
-      <c r="B2" t="str">
-        <v>MR-1764607083745-F032170B</v>
-      </c>
-      <c r="C2" t="str">
-        <v>20251201 1638</v>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-      <c r="F2" t="str">
-        <v>pending</v>
-      </c>
-      <c r="G2" t="str">
-        <v>1.00</v>
-      </c>
-      <c r="H2" t="str">
-        <v>4"</v>
-      </c>
-      <c r="I2" t="str">
-        <v>支</v>
-      </c>
-      <c r="J2" t="str">
-        <v/>
-      </c>
-      <c r="K2" t="str">
-        <v>鍍鋅鋼管4626</v>
-      </c>
-      <c r="L2" t="str">
-        <v/>
+    <row r="2" ht="25" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
-  </ignoredErrors>
+  <mergeCells count="2">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="4" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>日期</v>
-      </c>
-      <c r="B1" t="str">
-        <v>分類</v>
-      </c>
-      <c r="C1" t="str">
-        <v>數量</v>
-      </c>
-      <c r="D1" t="str">
-        <v>狀態</v>
+    <row r="1" ht="25" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>202512</v>
-      </c>
-      <c r="B2" t="str">
-        <v>鍍鋅鋼管4626</v>
-      </c>
-      <c r="C2" t="str">
-        <v>1.00</v>
-      </c>
-      <c r="D2" t="str">
-        <v>pending</v>
+    <row r="2" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="0"/>
 </worksheet>
 </file>
--- a/server/test-MR-1764607083745-F032170B.xlsx
+++ b/server/test-MR-1764607083745-F032170B.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>金鴻空調機電工程有限公司</t>
   </si>
@@ -20,6 +20,39 @@
     <t>統編：16272724</t>
   </si>
   <si>
+    <t>叫料單號</t>
+  </si>
+  <si>
+    <t>MR-1764607083745-F032170B</t>
+  </si>
+  <si>
+    <t>建立日期</t>
+  </si>
+  <si>
+    <t>2025/12/01 下午04:38</t>
+  </si>
+  <si>
+    <t>申請人</t>
+  </si>
+  <si>
+    <t>訪客</t>
+  </si>
+  <si>
+    <t>聯繫電話</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>送貨地址</t>
+  </si>
+  <si>
+    <t>狀態</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
     <t>編號</t>
   </si>
   <si>
@@ -35,9 +68,6 @@
     <t>備註</t>
   </si>
   <si>
-    <t>狀態</t>
-  </si>
-  <si>
     <t>數量</t>
   </si>
   <si>
@@ -59,16 +89,7 @@
     <t>16272724</t>
   </si>
   <si>
-    <t>MR-1764607083745-F032170B</t>
-  </si>
-  <si>
     <t>20251201 1638</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>pending</t>
   </si>
   <si>
     <t>1.00</t>
@@ -96,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -111,16 +132,21 @@
     </font>
     <font>
       <b/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="微軟正黑體"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微軟正黑體"/>
     </font>
+    <font>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +156,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -148,6 +179,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFD0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D0D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -161,34 +207,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D0D0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D0D0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0D0D0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0D0D0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -533,7 +570,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
@@ -580,86 +617,200 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" ht="22" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+    </row>
+    <row r="5" ht="22" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+    </row>
+    <row r="6" ht="22" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" ht="22" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" ht="22" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" ht="22" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+    </row>
+    <row r="11" ht="25" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>17</v>
+      <c r="L11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="0"/>
@@ -680,31 +831,31 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/server/test-MR-1764607083745-F032170B.xlsx
+++ b/server/test-MR-1764607083745-F032170B.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>金鴻空調機電工程有限公司</t>
   </si>
@@ -53,55 +53,46 @@
     <t>pending</t>
   </si>
   <si>
-    <t>編號</t>
-  </si>
-  <si>
-    <t>訂單代碼</t>
-  </si>
-  <si>
-    <t>日期時間</t>
-  </si>
-  <si>
-    <t>聯絡電話</t>
+    <t>工區</t>
+  </si>
+  <si>
+    <t>施工類別</t>
+  </si>
+  <si>
+    <t>材料類別</t>
+  </si>
+  <si>
+    <t>材料名稱</t>
+  </si>
+  <si>
+    <t>材料規格</t>
+  </si>
+  <si>
+    <t>單位</t>
+  </si>
+  <si>
+    <t>數量</t>
   </si>
   <si>
     <t>備註</t>
   </si>
   <si>
-    <t>數量</t>
-  </si>
-  <si>
-    <t>型號/規格</t>
-  </si>
-  <si>
-    <t>單位</t>
-  </si>
-  <si>
-    <t>單價</t>
-  </si>
-  <si>
-    <t>類別</t>
-  </si>
-  <si>
-    <t>其他資訊</t>
-  </si>
-  <si>
-    <t>16272724</t>
-  </si>
-  <si>
-    <t>20251201 1638</t>
+    <t>消防水</t>
+  </si>
+  <si>
+    <t>鍍鋅鋼管4626</t>
+  </si>
+  <si>
+    <t>4626</t>
+  </si>
+  <si>
+    <t>4"</t>
+  </si>
+  <si>
+    <t>支</t>
   </si>
   <si>
     <t>1.00</t>
-  </si>
-  <si>
-    <t>4"</t>
-  </si>
-  <si>
-    <t>支</t>
-  </si>
-  <si>
-    <t>鍍鋅鋼管4626</t>
   </si>
   <si>
     <t>日期</t>
@@ -570,22 +561,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:H12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="12" width="15" customWidth="1"/>
+    <col min="1" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" ht="30" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,12 +582,8 @@
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-    </row>
-    <row r="2" ht="25" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,12 +594,8 @@
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-    </row>
-    <row r="4" ht="22" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" ht="22" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -630,12 +608,8 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-    </row>
-    <row r="5" ht="22" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" ht="22" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -648,12 +622,8 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-    </row>
-    <row r="6" ht="22" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" ht="22" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -666,12 +636,8 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-    </row>
-    <row r="7" ht="22" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" ht="22" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -684,12 +650,8 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-    </row>
-    <row r="8" ht="22" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" ht="22" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -702,12 +664,8 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-    </row>
-    <row r="9" ht="22" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" ht="22" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -720,12 +678,8 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-    </row>
-    <row r="11" ht="25" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" ht="25" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -742,75 +696,51 @@
         <v>17</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="4" t="s">
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="5" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="0"/>
@@ -832,13 +762,13 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>11</v>
@@ -846,10 +776,10 @@
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>26</v>
